--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1363929.206082249</v>
+        <v>1435121.845334531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6141116.303086209</v>
+        <v>6625447.370411147</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>170.9715366513346</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>218.7401522186049</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>3.139541480023263</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>104.5153960206948</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>361.1939733748598</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>54.39785021488581</v>
       </c>
       <c r="C8" t="n">
-        <v>167.9427682351717</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,10 +1147,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>8.909245336632258</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523203</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>409.4993862590579</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>303.258695383881</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>18.05677735225787</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>155.7365003066861</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170507</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>53.06991172717003</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3278,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>136.9505762815748</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>151.1274520174225</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>12.11553319608921</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>114.8528499950182</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>184.5029040082445</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>157.5342399386656</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>17.96377529449277</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1407.442352713551</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C2" t="n">
-        <v>1234.743830843516</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>798.8340460179608</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>769.09970521666</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>745.2726796662719</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2257.945156827654</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2257.945156827654</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1853.089702238687</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1433.947238817997</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y2" t="n">
-        <v>1429.701519158055</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>1751.460510101595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>1751.460510101595</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="O3" t="n">
-        <v>1751.460510101595</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.8207098557364</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C4" t="n">
-        <v>570.2589983389613</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="D4" t="n">
-        <v>404.381005540484</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>234.6230017912213</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>57.91594775297747</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>57.91594775297747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.058999260615</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.6393285747235</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.70967081658</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C5" t="n">
-        <v>481.6076020404074</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D5" t="n">
-        <v>449.738221255256</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>420.0038804539552</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.515585694473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.293283011491</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.293283011491</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1769.437828422524</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.295365001834</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y5" t="n">
-        <v>942.0092413014878</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>732.2102786755574</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>57.91594775297747</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>599.3615446327429</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>429.7223847992361</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>397.8530040140847</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>368.1186632127839</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>344.2916376623957</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2916376623957</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>732.2102786755574</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1409.675863618363</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.945156827654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2257.945156827654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1853.089702238687</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.947238817997</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1025.661115117651</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>732.2102786755574</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1409.675863618363</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1409.675863618363</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1409.675863618363</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>970.2403805416282</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1162.058999260615</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1606.914854098769</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1606.914854098769</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.914854098769</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>1173.140109257064</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F11" t="n">
-        <v>745.2726796662719</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>54.74469373275195</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="M11" t="n">
-        <v>54.74469373275195</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2430.912772108425</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>2026.057317519458</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>1606.914854098769</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1606.914854098769</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N12" t="n">
-        <v>382.60715354234</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O12" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4798998523679</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>750.9181883355928</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>585.0401955371156</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2821917878528</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>238.575137749609</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>72.98386277543668</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>72.98386277543668</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.091856467112</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.136348337543</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.109943923834</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.718189257247</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.298518571355</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.927172358562</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1317.784699541985</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.784699541985</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>884.0099547002803</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>1409.675863618363</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N14" t="n">
-        <v>2087.141448561168</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>2737.234686637598</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>2332.379232048631</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>1913.236768627942</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1913.236768627942</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O15" t="n">
-        <v>499.7799316366797</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P15" t="n">
-        <v>1177.245516579485</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>764.2385311503645</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C16" t="n">
-        <v>591.6768196335894</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D16" t="n">
-        <v>425.7988268351121</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E16" t="n">
-        <v>256.0408230858494</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F16" t="n">
-        <v>79.33376904760556</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.162934933549</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.283488512004</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.850487765109</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1700.894979635539</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1428.868575221831</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.476820555243</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.0571498693516</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,19 +5515,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1336.971486530524</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2412.031452783383</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5592,28 +5594,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>566.7757676570886</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>211.240503094076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346935</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557486</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,22 +5992,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>475.2748675296854</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>475.2748675296854</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>525.9458847132731</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1601.005850966132</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6473,16 +6475,16 @@
         <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>287.8657185439749</v>
+        <v>270.2186143064091</v>
       </c>
       <c r="L30" t="n">
-        <v>287.8657185439749</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M30" t="n">
-        <v>287.8657185439749</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N30" t="n">
-        <v>287.8657185439749</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>287.8657185439749</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6938,49 +6940,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.773653488281</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>306.120802776629</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1504.950644927595</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.296652990805</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D41" t="n">
-        <v>916.3868681652491</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E41" t="n">
-        <v>482.6121233235442</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L41" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M41" t="n">
-        <v>489.9993811856698</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N41" t="n">
-        <v>835.8047307933927</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>1513.270315736198</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>2332.379232048631</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>1913.236768627942</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>1504.950644927595</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.619920133277</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>1073.994925158789</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J42" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M42" t="n">
-        <v>1382.303516751987</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N42" t="n">
-        <v>2059.769101694793</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O42" t="n">
-        <v>2737.234686637598</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="P42" t="n">
-        <v>2737.234686637598</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>2737.234686637598</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.3335865719838</v>
+        <v>1060.279116188733</v>
       </c>
       <c r="C43" t="n">
-        <v>629.7718750552087</v>
+        <v>887.7174046719575</v>
       </c>
       <c r="D43" t="n">
-        <v>629.7718750552087</v>
+        <v>721.8394118734802</v>
       </c>
       <c r="E43" t="n">
-        <v>460.0138713059459</v>
+        <v>552.0814081242174</v>
       </c>
       <c r="F43" t="n">
-        <v>283.3068172677021</v>
+        <v>375.3743540859737</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>209.7830791118013</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2304.378543933623</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2025.945543186728</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V43" t="n">
-        <v>1738.990035057159</v>
+        <v>1996.935564673907</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.96363064345</v>
+        <v>1724.909160260199</v>
       </c>
       <c r="X43" t="n">
-        <v>1221.571875976863</v>
+        <v>1479.517405593612</v>
       </c>
       <c r="Y43" t="n">
-        <v>994.1522052909709</v>
+        <v>1252.09773490772</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1913.236768627942</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>1754.111273740401</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>1318.201488914845</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>884.4267440731403</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>456.5593144823481</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>1167.464966128475</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>1167.464966128475</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
-        <v>1844.930551071281</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N44" t="n">
-        <v>1844.930551071281</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>1844.930551071281</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>2332.379232048631</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.236768627942</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1913.236768627942</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J45" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.058598319247</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L45" t="n">
-        <v>1265.130738657648</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M45" t="n">
-        <v>1942.596323600453</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N45" t="n">
-        <v>2620.061908543259</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O45" t="n">
-        <v>2620.061908543259</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P45" t="n">
-        <v>2620.061908543259</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.2407308096831</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2653.165134592867</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2407.285688171322</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2128.852687424428</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1841.897179294858</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1569.87077488115</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1324.479020214562</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.05934952867</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8064,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278669</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>618.0868407147309</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8693,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8778,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593995</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>537.6417914809774</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>807.5312715220469</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9240,31 +9242,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>141.3703054748452</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,7 +9415,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,10 +9655,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>427.9646913560541</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,16 +9886,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,19 +10123,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,7 +10603,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10668,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>205.9191540463125</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N41" t="n">
-        <v>349.2983329370937</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>285.0958772047886</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593994</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>178.4356412673392</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>166.7395356953546</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.08936903582639</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>55.73208518163068</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>69.71657238081355</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>266.3000744733726</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627255</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308167807</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>52.94985625022244</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>282.6335960709885</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.4732220987951</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>23.65030257151106</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>58.9177479490848</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>276.2268081497454</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>411.473222098795</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>377716.8185559983</v>
+        <v>543478.6180874043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>377716.8185559983</v>
+        <v>543478.6180874043</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>377716.8185559983</v>
+        <v>543478.6180874043</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>377716.8185559983</v>
+        <v>543478.6180874043</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="E2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="H2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26341,19 +26343,19 @@
         <v>342457.429689279</v>
       </c>
       <c r="L2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="M2" t="n">
         <v>342457.4296892791</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="O2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.8091726078</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110551.3788292105</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="C4" t="n">
-        <v>110551.3788292105</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>110551.3788292105</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>525.526363575143</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="F4" t="n">
-        <v>525.526363575143</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26447,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
+        <v>806.3323907826021</v>
+      </c>
+      <c r="M4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="M4" t="n">
-        <v>806.3323907826024</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>525.526363575143</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="P4" t="n">
-        <v>525.5263635751431</v>
+        <v>756.1546847085236</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66616.76310984962</v>
+        <v>-62920.87143528764</v>
       </c>
       <c r="C6" t="n">
-        <v>162710.8118626634</v>
+        <v>160778.8271487571</v>
       </c>
       <c r="D6" t="n">
-        <v>162710.8118626634</v>
+        <v>160778.8271487572</v>
       </c>
       <c r="E6" t="n">
-        <v>181064.8082735324</v>
+        <v>98459.27240377186</v>
       </c>
       <c r="F6" t="n">
-        <v>181064.8082735324</v>
+        <v>249125.0259755198</v>
       </c>
       <c r="G6" t="n">
-        <v>101139.5708942624</v>
+        <v>234843.049520096</v>
       </c>
       <c r="H6" t="n">
         <v>263932.8586927039</v>
@@ -26543,7 +26545,7 @@
         <v>263932.8586927039</v>
       </c>
       <c r="J6" t="n">
-        <v>84887.60060505202</v>
+        <v>89281.50997499781</v>
       </c>
       <c r="K6" t="n">
         <v>263932.8586927039</v>
@@ -26552,16 +26554,16 @@
         <v>263932.8586927039</v>
       </c>
       <c r="M6" t="n">
-        <v>263932.8586927039</v>
+        <v>138181.7703570132</v>
       </c>
       <c r="N6" t="n">
         <v>263932.8586927039</v>
       </c>
       <c r="O6" t="n">
-        <v>181064.8082735324</v>
+        <v>249125.0259755197</v>
       </c>
       <c r="P6" t="n">
-        <v>181064.8082735324</v>
+        <v>249125.0259755198</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990744</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990744</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7895114370763</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>185.4631102447382</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.33579611060421</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.363611086506</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>329.2456520677162</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>62.39478192002457</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>367.6387245651729</v>
       </c>
       <c r="C8" t="n">
-        <v>265.8182798532392</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29998,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30189,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278669</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>618.0868407147311</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593995</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1742018278667</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593995</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>618.0868407147309</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0868407147311</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>331.1742018278667</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>684.3086716593995</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>449.5305433373007</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>537.6417914809774</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>807.5312715220469</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>141.3703054748452</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36133,7 +36135,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>376.7818457160665</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,10 +36375,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>427.9646913560541</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,16 +36606,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,19 +36843,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>257.1019996863001</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,7 +37323,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>205.9191540463125</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37558,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N41" t="n">
-        <v>349.2983329370937</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>285.0958772047886</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>684.3086716593994</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>178.4356412673392</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>166.7395356953546</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1435121.845334531</v>
+        <v>1434515.757705633</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797154</v>
+        <v>606553.2040797157</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.2375206230836</v>
       </c>
       <c r="Y2" t="n">
-        <v>218.7401522186049</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8834167598883</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>184.8333783299116</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5153960206948</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>131.5497587154858</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>137.8834167598887</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.39785021488581</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>411.2087522069209</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>142.4359347523203</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>409.4993862590579</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>271.7368624962581</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>145.4261460119205</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>289.6029663988438</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170478</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>221.9986082496086</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832982</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>53.06991172717003</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3207,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.30825486907117</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>53.06991172717014</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.9505762815748</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>12.11553319608921</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>175.0349193669822</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>114.8528499950182</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>17.96377529449277</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>233.3437899988008</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.055244562854</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C2" t="n">
-        <v>946.912771746277</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D2" t="n">
-        <v>511.0029869207216</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862856</v>
@@ -4342,10 +4342,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X2" t="n">
-        <v>1628.264059713019</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.314411007357</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N3" t="n">
-        <v>277.7880908295411</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>938.6281453713194</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705994</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705994</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2461.942622985374</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2183.509622238479</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1896.55411410891</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1624.527709695201</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1052.900668210748</v>
+        <v>1373.289198434989</v>
       </c>
       <c r="C5" t="n">
-        <v>947.329561119137</v>
+        <v>935.1467256184123</v>
       </c>
       <c r="D5" t="n">
-        <v>915.4601803339856</v>
+        <v>499.2369407928568</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X5" t="n">
-        <v>1887.486362396002</v>
+        <v>2207.874892620243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.200238695656</v>
+        <v>1799.588768919897</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>933.2958513705998</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>933.2958513705998</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1382.829461272046</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554692</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D8" t="n">
-        <v>508.7772036299137</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4810,13 +4810,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>796.5359975716556</v>
       </c>
       <c r="F11" t="n">
-        <v>382.9002538756374</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G11" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885368</v>
@@ -5047,13 +5047,13 @@
         <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>1038.631590390883</v>
+        <v>861.7634217506388</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.631590390883</v>
+        <v>2018.81125696119</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.36257382733</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O11" t="n">
         <v>3144.542240397637</v>
@@ -5117,22 +5117,22 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
         <v>1099.098144071247</v>
@@ -5287,19 +5287,19 @@
         <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.631590390883</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
@@ -5311,10 +5311,10 @@
         <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.609868960946</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.992918894773</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
         <v>3774.137464305806</v>
@@ -5354,28 +5354,28 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.571709137155</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2639367364659</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>630.7022252196908</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>464.8242324212135</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>295.0662286719508</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>118.359174633707</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
         <v>93.77009931885368</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2551.18834051965</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2305.308894098105</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U16" t="n">
-        <v>2026.87589335121</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V16" t="n">
-        <v>1739.920385221641</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W16" t="n">
-        <v>1467.893980807932</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X16" t="n">
-        <v>1222.502226141345</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y16" t="n">
-        <v>995.0825554554531</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,22 +6232,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
         <v>287.8657185439749</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6469,10 +6469,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>270.2186143064091</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1062.363260807472</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1254.181879526459</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,7 +6943,7 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
         <v>3007.131363532228</v>
@@ -6958,7 +6958,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>1765.500601749588</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7368,16 +7368,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.99296709327</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055493</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238916</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.31074241336</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716556</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885368</v>
@@ -7420,43 +7420,43 @@
         <v>93.77009931885368</v>
       </c>
       <c r="M41" t="n">
-        <v>1038.631590390883</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.78586499956</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316576</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250403</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661436</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240747</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.6625705404</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>279.3749775920493</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1060.279116188733</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>887.7174046719575</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>721.8394118734802</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>552.0814081242174</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>375.3743540859737</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>209.7830791118013</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
         <v>93.77009931885368</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2283.891072803477</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1996.935564673907</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1724.909160260199</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1479.517405593612</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1252.09773490772</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055493</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238916</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.31074241336</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
@@ -7657,19 +7657,19 @@
         <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.631590390883</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
@@ -7684,16 +7684,16 @@
         <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661436</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240747</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.6625705404</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
         <v>1757.009860797663</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O2" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="P5" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>954.4055465374038</v>
+        <v>775.750830739177</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>954.4055465374038</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1093.635054596952</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>537.6417914809774</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>257.1019996863001</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10670,25 +10670,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>840.7541590122582</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10840,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.08936903582639</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>125.6469905667107</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>111.2039336442328</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>111.2039336442332</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.94985625022244</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>411.4732220987951</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>42.83163548870957</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>23.65030257151106</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>411.473222098795</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>125.6469905667109</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>579543.3425510875</v>
+        <v>579543.3425510876</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579543.3425510875</v>
+        <v>579543.3425510874</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>543478.6180874043</v>
+        <v>543478.6180874042</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>543478.6180874043</v>
+        <v>543478.6180874042</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287654</v>
+      </c>
+      <c r="C2" t="n">
         <v>348495.7579287655</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
-      <c r="D2" t="n">
-        <v>348495.7579287656</v>
-      </c>
       <c r="E2" t="n">
-        <v>321146.4561425571</v>
+        <v>321146.456142557</v>
       </c>
       <c r="F2" t="n">
         <v>321146.4561425571</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
         <v>342457.4296892791</v>
       </c>
       <c r="I2" t="n">
+        <v>342457.4296892791</v>
+      </c>
+      <c r="J2" t="n">
         <v>342457.429689279</v>
-      </c>
-      <c r="J2" t="n">
-        <v>342457.4296892791</v>
       </c>
       <c r="K2" t="n">
         <v>342457.429689279</v>
@@ -26349,10 +26349,10 @@
         <v>342457.4296892791</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="P2" t="n">
         <v>321146.4561425571</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.8091726078</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>756.1546847085235</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="F4" t="n">
-        <v>756.1546847085236</v>
+        <v>756.1546847085237</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26447,19 +26447,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
+        <v>806.3323907826023</v>
+      </c>
+      <c r="M4" t="n">
         <v>806.3323907826021</v>
       </c>
-      <c r="M4" t="n">
-        <v>806.3323907826023</v>
-      </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="O4" t="n">
         <v>756.1546847085235</v>
       </c>
       <c r="P4" t="n">
-        <v>756.1546847085236</v>
+        <v>756.1546847085235</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62920.87143528764</v>
+        <v>-62920.87143528773</v>
       </c>
       <c r="C6" t="n">
+        <v>160778.8271487572</v>
+      </c>
+      <c r="D6" t="n">
         <v>160778.8271487571</v>
       </c>
-      <c r="D6" t="n">
-        <v>160778.8271487572</v>
-      </c>
       <c r="E6" t="n">
-        <v>98459.27240377186</v>
+        <v>98354.08278151709</v>
       </c>
       <c r="F6" t="n">
-        <v>249125.0259755198</v>
+        <v>249019.8363532652</v>
       </c>
       <c r="G6" t="n">
-        <v>234843.049520096</v>
+        <v>234819.8251807135</v>
       </c>
       <c r="H6" t="n">
-        <v>263932.8586927039</v>
+        <v>263909.6343533213</v>
       </c>
       <c r="I6" t="n">
-        <v>263932.8586927039</v>
+        <v>263909.6343533213</v>
       </c>
       <c r="J6" t="n">
-        <v>89281.50997499781</v>
+        <v>89258.28563561512</v>
       </c>
       <c r="K6" t="n">
-        <v>263932.8586927039</v>
+        <v>263909.6343533212</v>
       </c>
       <c r="L6" t="n">
-        <v>263932.8586927039</v>
+        <v>263909.6343533213</v>
       </c>
       <c r="M6" t="n">
-        <v>138181.7703570132</v>
+        <v>138158.5460176305</v>
       </c>
       <c r="N6" t="n">
-        <v>263932.8586927039</v>
+        <v>263909.6343533212</v>
       </c>
       <c r="O6" t="n">
-        <v>249125.0259755197</v>
+        <v>249019.8363532652</v>
       </c>
       <c r="P6" t="n">
-        <v>249125.0259755198</v>
+        <v>249019.8363532652</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990744</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990744</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
+        <v>0.71351816339876</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>185.4631102447382</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33579611060421</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>58.58727362741769</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>329.2456520677162</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>297.887238677802</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>26.33579611060378</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.6387245651729</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>3.742286579561494</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O2" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="P5" t="n">
-        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>954.4055465374038</v>
+        <v>775.750830739177</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>954.4055465374038</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1093.635054596952</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>537.6417914809774</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>257.1019996863001</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>840.7541590122582</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37560,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38025,7 +38025,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
